--- a/Mainbord BOM.xlsx
+++ b/Mainbord BOM.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Mainbord_BOM" localSheetId="0">Sheet1!$A$1:$P$48</definedName>
+    <definedName name="Mainbord_BOM" localSheetId="0">Sheet1!$A$1:$P$46</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Qty</t>
   </si>
@@ -77,33 +77,15 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>.1uF</t>
-  </si>
-  <si>
-    <t>C12, C13, C30, C31, C32</t>
-  </si>
-  <si>
     <t>Capacitor</t>
   </si>
   <si>
-    <t>.22uF</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C15, C17, C18, C23</t>
-  </si>
-  <si>
     <t>0.22uF</t>
   </si>
   <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
     <t>0.75R</t>
   </si>
   <si>
@@ -140,12 +122,6 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
@@ -194,9 +170,6 @@
     <t>R24</t>
   </si>
   <si>
-    <t>3K3</t>
-  </si>
-  <si>
     <t>R2, R6, R27</t>
   </si>
   <si>
@@ -410,9 +383,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>Teensy 3.0 board, showing all pins that are easily acessible. See 'AllAnalogPins and 'AllPins' packages for additional pin holes</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -426,6 +396,87 @@
   </si>
   <si>
     <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>C12, C13,C15,C17,C18,C23,C30, C31, C32</t>
+  </si>
+  <si>
+    <t>C2,C3,C20</t>
+  </si>
+  <si>
+    <t>Teensy 3.1</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>587-2990-1-ND</t>
+  </si>
+  <si>
+    <t>LT3688HFE#PBF-ND</t>
+  </si>
+  <si>
+    <t>1276-2421-1-ND</t>
+  </si>
+  <si>
+    <t>541-523KCCT-ND</t>
+  </si>
+  <si>
+    <t>541-100KCCT-ND</t>
+  </si>
+  <si>
+    <t>399-5567-1-ND</t>
+  </si>
+  <si>
+    <t>541-316KCCT-ND</t>
+  </si>
+  <si>
+    <t>1276-3392-1-ND</t>
+  </si>
+  <si>
+    <t>445-3827-1-ND</t>
+  </si>
+  <si>
+    <t>15uH</t>
+  </si>
+  <si>
+    <t>22uH</t>
+  </si>
+  <si>
+    <t>445-3830-1-ND</t>
+  </si>
+  <si>
+    <t>SDM100K30LDICT-ND</t>
+  </si>
+  <si>
+    <t>P110KCCT-ND</t>
+  </si>
+  <si>
+    <t>MAX4372FEUK+TCT-ND</t>
+  </si>
+  <si>
+    <t>P3.3KACT-ND</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>P10KACT-ND</t>
+  </si>
+  <si>
+    <t>R9, R17</t>
+  </si>
+  <si>
+    <t>399-1171-1-ND</t>
+  </si>
+  <si>
+    <t>BSS138-FDICT-ND</t>
+  </si>
+  <si>
+    <t>IRF9310TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>535-9808-1-ND</t>
   </si>
 </sst>
 </file>
@@ -819,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -831,8 +882,8 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -843,7 +894,7 @@
     <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,333 +913,366 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1210</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1206</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1210</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -1197,9 +1281,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1208,572 +1292,545 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
         <v>123</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>2</v>
-      </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
         <v>105</v>
       </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C40" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
         <v>110</v>
       </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
         <v>65</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="F39" t="s">
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="E43" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mainbord BOM.xlsx
+++ b/Mainbord BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="6140" windowWidth="24720" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="24020" windowHeight="18880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
   <si>
     <t>Qty</t>
   </si>
@@ -326,9 +326,6 @@
     <t>MIC803</t>
   </si>
   <si>
-    <t>MIC803-31D3VM3TR</t>
-  </si>
-  <si>
     <t>SOT95P232X110-3N</t>
   </si>
   <si>
@@ -477,13 +474,83 @@
   </si>
   <si>
     <t>535-9808-1-ND</t>
+  </si>
+  <si>
+    <t>587-1287-1-ND</t>
+  </si>
+  <si>
+    <t>399-1158-1-ND</t>
+  </si>
+  <si>
+    <t>399-1151-1-ND</t>
+  </si>
+  <si>
+    <t>399-7158-1-ND</t>
+  </si>
+  <si>
+    <t>399-5620-1-ND</t>
+  </si>
+  <si>
+    <t>408-1556-1-ND</t>
+  </si>
+  <si>
+    <t>311-.75SCT-ND</t>
+  </si>
+  <si>
+    <t>1276-6000-1-ND</t>
+  </si>
+  <si>
+    <t>311-10KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-33.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-4.70KCRCT-ND</t>
+  </si>
+  <si>
+    <t>RHM470CHCT-ND</t>
+  </si>
+  <si>
+    <t>311-68.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>RHC2512FT7R50CT-ND</t>
+  </si>
+  <si>
+    <t>ZXMP2120FFCT-ND</t>
+  </si>
+  <si>
+    <t>MIC803-31D2VM3TR</t>
+  </si>
+  <si>
+    <t>576-3814-1-ND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Newark </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>69W6470</t>
+    </r>
+  </si>
+  <si>
+    <t>342-1082-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +573,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,9 +610,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -873,7 +954,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -914,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -928,21 +1009,21 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -951,13 +1032,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -971,13 +1055,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -991,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1000,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1014,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1023,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1037,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1045,6 +1132,9 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -1057,13 +1147,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1077,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -1086,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1107,6 +1200,9 @@
       </c>
       <c r="F10" t="s">
         <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1129,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1137,22 +1233,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,22 +1256,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1189,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1197,6 +1293,9 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
@@ -1209,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1217,6 +1316,9 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
@@ -1236,6 +1338,9 @@
       </c>
       <c r="F16" t="s">
         <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1249,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1258,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1272,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -1280,6 +1385,9 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
+      <c r="G18" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
@@ -1292,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1315,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -1324,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1338,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1347,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1361,13 +1469,16 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1375,13 +1486,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1390,7 +1501,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1404,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>42</v>
@@ -1412,6 +1523,9 @@
       <c r="F24" t="s">
         <v>8</v>
       </c>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
@@ -1424,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1432,6 +1546,9 @@
       <c r="F25" t="s">
         <v>8</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
@@ -1444,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
@@ -1453,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1467,13 +1584,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1495,6 +1615,9 @@
       <c r="F28" t="s">
         <v>8</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
@@ -1504,7 +1627,7 @@
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>59</v>
@@ -1516,7 +1639,7 @@
         <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1524,19 +1647,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="F30" t="s">
-        <v>99</v>
+      <c r="G30" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1544,19 +1670,19 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" t="s">
         <v>101</v>
       </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1564,19 +1690,19 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
         <v>106</v>
       </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
-      </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1596,7 +1722,7 @@
         <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1607,16 +1733,19 @@
         <v>91</v>
       </c>
       <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>94</v>
       </c>
-      <c r="F34" t="s">
-        <v>95</v>
+      <c r="G34" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1635,6 +1764,9 @@
       <c r="E35" t="s">
         <v>57</v>
       </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
@@ -1655,6 +1787,9 @@
       <c r="F36" t="s">
         <v>79</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
@@ -1693,7 +1828,7 @@
         <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1701,19 +1836,19 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>104</v>
-      </c>
-      <c r="F39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1721,19 +1856,19 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
         <v>109</v>
       </c>
-      <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
-      </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1753,7 +1888,7 @@
         <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:7">

--- a/Mainbord BOM.xlsx
+++ b/Mainbord BOM.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="24020" windowHeight="18880" tabRatio="500"/>
+    <workbookView xWindow="2800" yWindow="1040" windowWidth="24020" windowHeight="18880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Mainbord_BOM" localSheetId="0">Sheet1!$A$1:$P$46</definedName>
+    <definedName name="Mainbord_BOM" localSheetId="0">Sheet1!$A$1:$P$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
   <si>
     <t>Qty</t>
   </si>
@@ -113,12 +113,6 @@
     <t>C21</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R3, R7, R28</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>C22</t>
   </si>
   <si>
-    <t>4R</t>
-  </si>
-  <si>
     <t>R20, R25</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>CURRENT_MAX4372</t>
-  </si>
-  <si>
     <t>SOT23-5</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
     <t>Standard 2-pin 0.1 header. Use with"</t>
   </si>
   <si>
-    <t>MIC803</t>
-  </si>
-  <si>
     <t>SOT95P232X110-3N</t>
   </si>
   <si>
@@ -461,9 +446,6 @@
     <t>P10KACT-ND</t>
   </si>
   <si>
-    <t>R9, R17</t>
-  </si>
-  <si>
     <t>399-1171-1-ND</t>
   </si>
   <si>
@@ -498,9 +480,6 @@
   </si>
   <si>
     <t>1276-6000-1-ND</t>
-  </si>
-  <si>
-    <t>311-10KARCT-ND</t>
   </si>
   <si>
     <t>311-33.0KCRCT-ND</t>
@@ -544,6 +523,60 @@
   </si>
   <si>
     <t>342-1082-1-ND</t>
+  </si>
+  <si>
+    <t>R3,R7,R9, R17,R28</t>
+  </si>
+  <si>
+    <t>7.5R</t>
+  </si>
+  <si>
+    <t>P-MOSFET</t>
+  </si>
+  <si>
+    <t>P-MOSFET (Power)</t>
+  </si>
+  <si>
+    <t>N-MOSFET</t>
+  </si>
+  <si>
+    <t>Current Sense Amplifier</t>
+  </si>
+  <si>
+    <t>MAX4372</t>
+  </si>
+  <si>
+    <t>Voltage Supervisor</t>
+  </si>
+  <si>
+    <t>Real-Time Clock</t>
+  </si>
+  <si>
+    <t>Magnetometer</t>
+  </si>
+  <si>
+    <t>Gyro</t>
+  </si>
+  <si>
+    <t>Switching Regulator</t>
+  </si>
+  <si>
+    <t>Radio Transciever</t>
+  </si>
+  <si>
+    <t>ARM MCU Module</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>SMA Connector</t>
+  </si>
+  <si>
+    <t>Screw Terminal</t>
+  </si>
+  <si>
+    <t>Gecko Connector</t>
   </si>
 </sst>
 </file>
@@ -588,12 +621,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -610,10 +649,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -951,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -995,777 +1036,777 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1206</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1210</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="18" spans="1:7" s="2" customFormat="1">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1">
+      <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1">
+      <c r="A27" s="2">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1206</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1">
+      <c r="A28" s="2">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1210</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="29" spans="1:7" s="2" customFormat="1">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
+    <row r="34" spans="1:7" s="2" customFormat="1">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="2" t="s">
+    <row r="35" spans="1:7" s="2" customFormat="1">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1776,7 +1817,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>77</v>
@@ -1787,28 +1828,25 @@
       <c r="F36" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F37" t="s">
-        <v>83</v>
+      <c r="G37" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1816,19 +1854,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>120</v>
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1836,39 +1874,39 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1876,96 +1914,76 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" t="s">
-        <v>141</v>
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Mainbord BOM.xlsx
+++ b/Mainbord BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1040" windowWidth="24020" windowHeight="18880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
